--- a/eums/client/test/functional/files/sales-orders.xlsx
+++ b/eums/client/test/functional/files/sales-orders.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="0" windowWidth="27960" windowHeight="16280" tabRatio="500"/>
+    <workbookView xWindow="1080" yWindow="0" windowWidth="27960" windowHeight="16280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="191">
   <si>
     <t>Sales Document</t>
   </si>
@@ -630,7 +630,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -646,6 +646,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -674,12 +680,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -723,10 +743,33 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -740,13 +783,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -789,13 +832,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -838,13 +881,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -887,13 +930,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -936,13 +979,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -985,13 +1028,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1034,13 +1077,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1083,13 +1126,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1132,13 +1175,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1181,13 +1224,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1230,13 +1273,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1475,13 +1518,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1524,13 +1567,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1573,13 +1616,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1622,13 +1665,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1671,13 +1714,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1720,13 +1763,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1769,13 +1812,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1818,13 +1861,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1867,13 +1910,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1916,13 +1959,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1965,13 +2008,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2014,13 +2057,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2063,13 +2106,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2112,13 +2155,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2161,13 +2204,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2210,13 +2253,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2259,13 +2302,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2308,13 +2351,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2357,13 +2400,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2406,13 +2449,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2455,13 +2498,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2504,13 +2547,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2553,13 +2596,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2602,13 +2645,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2651,13 +2694,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2700,13 +2743,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2749,13 +2792,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2798,13 +2841,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2847,13 +2890,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2896,13 +2939,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2945,13 +2988,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2994,13 +3037,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3043,13 +3086,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3092,13 +3135,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3190,13 +3233,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3337,13 +3380,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3386,13 +3429,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3435,13 +3478,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3484,13 +3527,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3533,13 +3576,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3582,13 +3625,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3631,13 +3674,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3680,13 +3723,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3778,13 +3821,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3827,13 +3870,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3876,13 +3919,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3925,13 +3968,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3974,13 +4017,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4023,13 +4066,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4072,13 +4115,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4121,13 +4164,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4170,13 +4213,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4540,10 +4583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG70"/>
+  <dimension ref="A1:AG72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0"/>
@@ -4654,103 +4697,103 @@
       </c>
     </row>
     <row r="2" spans="1:33" s="4" customFormat="1" ht="14" customHeight="1" outlineLevel="2">
-      <c r="A2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="12">
-        <v>8</v>
-      </c>
-      <c r="E2" s="12">
-        <v>8</v>
-      </c>
-      <c r="F2" s="13">
-        <v>227.84</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H2" s="14">
-        <v>41783</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="A2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="5">
+        <v>100</v>
+      </c>
+      <c r="E2" s="5">
+        <v>100</v>
+      </c>
+      <c r="F2" s="6">
+        <v>20900</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="7">
+        <v>41725</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="14">
-        <v>41783</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="L2" s="3" t="s">
+      <c r="J2" s="7">
+        <v>41725</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q2" s="12">
-        <v>0</v>
-      </c>
-      <c r="R2" s="13">
-        <v>0</v>
-      </c>
-      <c r="S2" s="12">
-        <v>8</v>
-      </c>
-      <c r="T2" s="13">
-        <v>0</v>
-      </c>
-      <c r="U2" s="13">
-        <v>0</v>
-      </c>
-      <c r="V2" s="13">
-        <v>227.84</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y2" s="3" t="s">
+      <c r="N2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>0</v>
+      </c>
+      <c r="R2" s="6">
+        <v>0</v>
+      </c>
+      <c r="S2" s="5">
+        <v>0</v>
+      </c>
+      <c r="T2" s="6">
+        <v>0</v>
+      </c>
+      <c r="U2" s="6">
+        <v>0</v>
+      </c>
+      <c r="V2" s="6">
+        <v>20900</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="Z2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AA2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AB2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AC2" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="13">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="13">
-        <v>227.84</v>
-      </c>
-      <c r="AG2" s="3" t="s">
+      <c r="AC2" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="6">
+        <v>17712</v>
+      </c>
+      <c r="AG2" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -4759,19 +4802,19 @@
         <v>62</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D3" s="12">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E3" s="12">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F3" s="13">
-        <v>502.32</v>
+        <v>227.84</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>64</v>
@@ -4786,7 +4829,7 @@
         <v>41783</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>38</v>
@@ -4810,7 +4853,7 @@
         <v>0</v>
       </c>
       <c r="S3" s="12">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="T3" s="13">
         <v>0</v>
@@ -4819,7 +4862,7 @@
         <v>0</v>
       </c>
       <c r="V3" s="13">
-        <v>502.32</v>
+        <v>227.84</v>
       </c>
       <c r="W3" s="3" t="s">
         <v>42</v>
@@ -4849,7 +4892,7 @@
         <v>0</v>
       </c>
       <c r="AF3" s="13">
-        <v>502.32</v>
+        <v>227.84</v>
       </c>
       <c r="AG3" s="3" t="s">
         <v>42</v>
@@ -4860,19 +4903,19 @@
         <v>62</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D4" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E4" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F4" s="13">
-        <v>141.12</v>
+        <v>502.32</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>64</v>
@@ -4887,7 +4930,7 @@
         <v>41783</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>38</v>
@@ -4911,7 +4954,7 @@
         <v>0</v>
       </c>
       <c r="S4" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="T4" s="13">
         <v>0</v>
@@ -4920,7 +4963,7 @@
         <v>0</v>
       </c>
       <c r="V4" s="13">
-        <v>141.12</v>
+        <v>502.32</v>
       </c>
       <c r="W4" s="3" t="s">
         <v>42</v>
@@ -4950,7 +4993,7 @@
         <v>0</v>
       </c>
       <c r="AF4" s="13">
-        <v>141.12</v>
+        <v>502.32</v>
       </c>
       <c r="AG4" s="3" t="s">
         <v>42</v>
@@ -4961,19 +5004,19 @@
         <v>62</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D5" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E5" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F5" s="13">
-        <v>207.36</v>
+        <v>141.12</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>64</v>
@@ -4988,7 +5031,7 @@
         <v>41783</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>38</v>
@@ -5012,7 +5055,7 @@
         <v>0</v>
       </c>
       <c r="S5" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="T5" s="13">
         <v>0</v>
@@ -5021,7 +5064,7 @@
         <v>0</v>
       </c>
       <c r="V5" s="13">
-        <v>207.36</v>
+        <v>141.12</v>
       </c>
       <c r="W5" s="3" t="s">
         <v>42</v>
@@ -5051,110 +5094,110 @@
         <v>0</v>
       </c>
       <c r="AF5" s="13">
-        <v>207.36</v>
+        <v>141.12</v>
       </c>
       <c r="AG5" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="8" customFormat="1" ht="14" customHeight="1" outlineLevel="2">
-      <c r="A6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="5">
-        <v>100</v>
-      </c>
-      <c r="E6" s="5">
-        <v>100</v>
-      </c>
-      <c r="F6" s="6">
-        <v>20900</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="7">
-        <v>41725</v>
-      </c>
-      <c r="I6" s="4" t="s">
+      <c r="A6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="12">
+        <v>16</v>
+      </c>
+      <c r="E6" s="12">
+        <v>16</v>
+      </c>
+      <c r="F6" s="13">
+        <v>207.36</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="14">
+        <v>41783</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="7">
-        <v>41725</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="L6" s="4" t="s">
+      <c r="J6" s="14">
+        <v>41783</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q6" s="5">
-        <v>0</v>
-      </c>
-      <c r="R6" s="6">
-        <v>0</v>
-      </c>
-      <c r="S6" s="5">
-        <v>0</v>
-      </c>
-      <c r="T6" s="6">
-        <v>0</v>
-      </c>
-      <c r="U6" s="6">
-        <v>0</v>
-      </c>
-      <c r="V6" s="6">
-        <v>20900</v>
-      </c>
-      <c r="W6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="X6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y6" s="4" t="s">
+      <c r="N6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q6" s="12">
+        <v>0</v>
+      </c>
+      <c r="R6" s="13">
+        <v>0</v>
+      </c>
+      <c r="S6" s="12">
+        <v>16</v>
+      </c>
+      <c r="T6" s="13">
+        <v>0</v>
+      </c>
+      <c r="U6" s="13">
+        <v>0</v>
+      </c>
+      <c r="V6" s="13">
+        <v>207.36</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="Z6" s="4" t="s">
+      <c r="Z6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AA6" s="4" t="s">
+      <c r="AA6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AB6" s="4" t="s">
+      <c r="AB6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AC6" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="6">
-        <v>17712</v>
-      </c>
-      <c r="AG6" s="4" t="s">
+      <c r="AC6" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="13">
+        <v>207.36</v>
+      </c>
+      <c r="AG6" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5968,35 +6011,37 @@
     </row>
     <row r="15" spans="1:33" s="3" customFormat="1" ht="14" customHeight="1" outlineLevel="2">
       <c r="A15" s="3" t="s">
-        <v>129</v>
+        <v>62</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>130</v>
+        <v>63</v>
       </c>
       <c r="D15" s="12">
-        <v>500</v>
+        <v>24</v>
       </c>
       <c r="E15" s="12">
-        <v>500</v>
+        <v>24</v>
       </c>
       <c r="F15" s="13">
-        <v>500</v>
+        <v>318.48</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="H15" s="14"/>
+        <v>64</v>
+      </c>
+      <c r="H15" s="14">
+        <v>41783</v>
+      </c>
       <c r="I15" s="3" t="s">
         <v>36</v>
       </c>
       <c r="J15" s="14">
-        <v>41925</v>
+        <v>41783</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>138</v>
+        <v>86</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>38</v>
@@ -6005,10 +6050,10 @@
         <v>39</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>133</v>
+        <v>66</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>42</v>
@@ -6020,7 +6065,7 @@
         <v>0</v>
       </c>
       <c r="S15" s="12">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="T15" s="13">
         <v>0</v>
@@ -6029,7 +6074,7 @@
         <v>0</v>
       </c>
       <c r="V15" s="13">
-        <v>500</v>
+        <v>318.48</v>
       </c>
       <c r="W15" s="3" t="s">
         <v>42</v>
@@ -6059,7 +6104,7 @@
         <v>0</v>
       </c>
       <c r="AF15" s="13">
-        <v>237.23</v>
+        <v>318.48</v>
       </c>
       <c r="AG15" s="3" t="s">
         <v>42</v>
@@ -6067,35 +6112,37 @@
     </row>
     <row r="16" spans="1:33" s="3" customFormat="1" ht="14" customHeight="1" outlineLevel="2">
       <c r="A16" s="3" t="s">
-        <v>129</v>
+        <v>62</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>56</v>
+        <v>151</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>130</v>
+        <v>63</v>
       </c>
       <c r="D16" s="12">
-        <v>500</v>
+        <v>16</v>
       </c>
       <c r="E16" s="12">
-        <v>500</v>
+        <v>16</v>
       </c>
       <c r="F16" s="13">
-        <v>2500</v>
+        <v>15.52</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="H16" s="14"/>
+        <v>64</v>
+      </c>
+      <c r="H16" s="14">
+        <v>41783</v>
+      </c>
       <c r="I16" s="3" t="s">
         <v>36</v>
       </c>
       <c r="J16" s="14">
-        <v>41925</v>
+        <v>41783</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="L16" s="3" t="s">
         <v>38</v>
@@ -6104,10 +6151,10 @@
         <v>39</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>133</v>
+        <v>66</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="P16" s="3" t="s">
         <v>42</v>
@@ -6119,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="S16" s="12">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="T16" s="13">
         <v>0</v>
@@ -6128,7 +6175,7 @@
         <v>0</v>
       </c>
       <c r="V16" s="13">
-        <v>2500</v>
+        <v>15.52</v>
       </c>
       <c r="W16" s="3" t="s">
         <v>42</v>
@@ -6158,7 +6205,7 @@
         <v>0</v>
       </c>
       <c r="AF16" s="13">
-        <v>670.45</v>
+        <v>15.52</v>
       </c>
       <c r="AG16" s="3" t="s">
         <v>42</v>
@@ -6166,35 +6213,37 @@
     </row>
     <row r="17" spans="1:33" s="3" customFormat="1" ht="14" customHeight="1" outlineLevel="2">
       <c r="A17" s="3" t="s">
-        <v>129</v>
+        <v>62</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>33</v>
+        <v>152</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>130</v>
+        <v>63</v>
       </c>
       <c r="D17" s="12">
-        <v>500</v>
+        <v>8</v>
       </c>
       <c r="E17" s="12">
-        <v>500</v>
+        <v>8</v>
       </c>
       <c r="F17" s="13">
-        <v>2500</v>
+        <v>194.88</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="H17" s="14"/>
+        <v>64</v>
+      </c>
+      <c r="H17" s="14">
+        <v>41783</v>
+      </c>
       <c r="I17" s="3" t="s">
         <v>36</v>
       </c>
       <c r="J17" s="14">
-        <v>41925</v>
+        <v>41783</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>38</v>
@@ -6203,10 +6252,10 @@
         <v>39</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>133</v>
+        <v>66</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>42</v>
@@ -6218,7 +6267,7 @@
         <v>0</v>
       </c>
       <c r="S17" s="12">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="T17" s="13">
         <v>0</v>
@@ -6227,7 +6276,7 @@
         <v>0</v>
       </c>
       <c r="V17" s="13">
-        <v>2500</v>
+        <v>194.88</v>
       </c>
       <c r="W17" s="3" t="s">
         <v>42</v>
@@ -6257,110 +6306,110 @@
         <v>0</v>
       </c>
       <c r="AF17" s="13">
-        <v>479.68</v>
+        <v>194.88</v>
       </c>
       <c r="AG17" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:33" s="3" customFormat="1" ht="14" customHeight="1" outlineLevel="2">
-      <c r="A18" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="9">
-        <v>3</v>
-      </c>
-      <c r="E18" s="9">
-        <v>3</v>
-      </c>
-      <c r="F18" s="10">
-        <v>3705</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="H18" s="11">
-        <v>41942</v>
-      </c>
-      <c r="I18" s="8" t="s">
+      <c r="A18" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="12">
+        <v>160</v>
+      </c>
+      <c r="E18" s="12">
+        <v>160</v>
+      </c>
+      <c r="F18" s="13">
+        <v>6.4</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H18" s="14">
+        <v>41783</v>
+      </c>
+      <c r="I18" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J18" s="11">
-        <v>41942</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="L18" s="8" t="s">
+      <c r="J18" s="14">
+        <v>41783</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="L18" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="M18" s="8" t="s">
+      <c r="M18" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N18" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="O18" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="P18" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q18" s="9">
-        <v>0</v>
-      </c>
-      <c r="R18" s="10">
-        <v>0</v>
-      </c>
-      <c r="S18" s="9">
-        <v>3</v>
-      </c>
-      <c r="T18" s="10">
-        <v>0</v>
-      </c>
-      <c r="U18" s="10">
-        <v>0</v>
-      </c>
-      <c r="V18" s="10">
-        <v>3705</v>
-      </c>
-      <c r="W18" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="X18" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y18" s="8" t="s">
+      <c r="N18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q18" s="12">
+        <v>0</v>
+      </c>
+      <c r="R18" s="13">
+        <v>0</v>
+      </c>
+      <c r="S18" s="12">
+        <v>160</v>
+      </c>
+      <c r="T18" s="13">
+        <v>0</v>
+      </c>
+      <c r="U18" s="13">
+        <v>0</v>
+      </c>
+      <c r="V18" s="13">
+        <v>6.4</v>
+      </c>
+      <c r="W18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="X18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y18" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="Z18" s="8" t="s">
+      <c r="Z18" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AA18" s="8" t="s">
+      <c r="AA18" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AB18" s="8" t="s">
+      <c r="AB18" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AC18" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD18" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE18" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="10">
-        <v>3686.47</v>
-      </c>
-      <c r="AG18" s="8" t="s">
+      <c r="AC18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="13">
+        <v>6.4</v>
+      </c>
+      <c r="AG18" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -6369,19 +6418,19 @@
         <v>62</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>150</v>
+        <v>56</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D19" s="12">
+        <v>480</v>
+      </c>
+      <c r="E19" s="12">
+        <v>480</v>
+      </c>
+      <c r="F19" s="13">
         <v>24</v>
-      </c>
-      <c r="E19" s="12">
-        <v>24</v>
-      </c>
-      <c r="F19" s="13">
-        <v>318.48</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>64</v>
@@ -6396,7 +6445,7 @@
         <v>41783</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="L19" s="3" t="s">
         <v>38</v>
@@ -6420,16 +6469,16 @@
         <v>0</v>
       </c>
       <c r="S19" s="12">
+        <v>480</v>
+      </c>
+      <c r="T19" s="13">
+        <v>0</v>
+      </c>
+      <c r="U19" s="13">
+        <v>0</v>
+      </c>
+      <c r="V19" s="13">
         <v>24</v>
-      </c>
-      <c r="T19" s="13">
-        <v>0</v>
-      </c>
-      <c r="U19" s="13">
-        <v>0</v>
-      </c>
-      <c r="V19" s="13">
-        <v>318.48</v>
       </c>
       <c r="W19" s="3" t="s">
         <v>42</v>
@@ -6459,7 +6508,7 @@
         <v>0</v>
       </c>
       <c r="AF19" s="13">
-        <v>318.48</v>
+        <v>24</v>
       </c>
       <c r="AG19" s="3" t="s">
         <v>42</v>
@@ -6470,19 +6519,19 @@
         <v>62</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D20" s="12">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E20" s="12">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F20" s="13">
-        <v>15.52</v>
+        <v>97.36</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>64</v>
@@ -6497,7 +6546,7 @@
         <v>41783</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>38</v>
@@ -6521,7 +6570,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="12">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="T20" s="13">
         <v>0</v>
@@ -6530,7 +6579,7 @@
         <v>0</v>
       </c>
       <c r="V20" s="13">
-        <v>15.52</v>
+        <v>97.36</v>
       </c>
       <c r="W20" s="3" t="s">
         <v>42</v>
@@ -6560,7 +6609,7 @@
         <v>0</v>
       </c>
       <c r="AF20" s="13">
-        <v>15.52</v>
+        <v>97.36</v>
       </c>
       <c r="AG20" s="3" t="s">
         <v>42</v>
@@ -6571,19 +6620,19 @@
         <v>62</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D21" s="12">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E21" s="12">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F21" s="13">
-        <v>194.88</v>
+        <v>3000</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>64</v>
@@ -6598,7 +6647,7 @@
         <v>41783</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>38</v>
@@ -6616,22 +6665,22 @@
         <v>42</v>
       </c>
       <c r="Q21" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" s="13">
         <v>0</v>
       </c>
       <c r="S21" s="12">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="T21" s="13">
-        <v>0</v>
+        <v>2879.36</v>
       </c>
       <c r="U21" s="13">
         <v>0</v>
       </c>
       <c r="V21" s="13">
-        <v>194.88</v>
+        <v>120.64</v>
       </c>
       <c r="W21" s="3" t="s">
         <v>42</v>
@@ -6646,11 +6695,11 @@
         <v>44</v>
       </c>
       <c r="AA21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB21" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AB21" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="AC21" s="13">
         <v>0</v>
       </c>
@@ -6661,10 +6710,10 @@
         <v>0</v>
       </c>
       <c r="AF21" s="13">
-        <v>194.88</v>
+        <v>0</v>
       </c>
       <c r="AG21" s="3" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:33" s="3" customFormat="1" ht="14" customHeight="1" outlineLevel="2">
@@ -6672,19 +6721,19 @@
         <v>62</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D22" s="12">
-        <v>160</v>
+        <v>24</v>
       </c>
       <c r="E22" s="12">
-        <v>160</v>
+        <v>24</v>
       </c>
       <c r="F22" s="13">
-        <v>6.4</v>
+        <v>6960</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>64</v>
@@ -6699,7 +6748,7 @@
         <v>41783</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>38</v>
@@ -6723,7 +6772,7 @@
         <v>0</v>
       </c>
       <c r="S22" s="12">
-        <v>160</v>
+        <v>24</v>
       </c>
       <c r="T22" s="13">
         <v>0</v>
@@ -6732,7 +6781,7 @@
         <v>0</v>
       </c>
       <c r="V22" s="13">
-        <v>6.4</v>
+        <v>6960</v>
       </c>
       <c r="W22" s="3" t="s">
         <v>42</v>
@@ -6762,7 +6811,7 @@
         <v>0</v>
       </c>
       <c r="AF22" s="13">
-        <v>6.4</v>
+        <v>6960</v>
       </c>
       <c r="AG22" s="3" t="s">
         <v>42</v>
@@ -6773,19 +6822,19 @@
         <v>62</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>56</v>
+        <v>157</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D23" s="12">
-        <v>480</v>
+        <v>4</v>
       </c>
       <c r="E23" s="12">
-        <v>480</v>
+        <v>4</v>
       </c>
       <c r="F23" s="13">
-        <v>24</v>
+        <v>83.4</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>64</v>
@@ -6800,7 +6849,7 @@
         <v>41783</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>38</v>
@@ -6824,7 +6873,7 @@
         <v>0</v>
       </c>
       <c r="S23" s="12">
-        <v>480</v>
+        <v>4</v>
       </c>
       <c r="T23" s="13">
         <v>0</v>
@@ -6833,7 +6882,7 @@
         <v>0</v>
       </c>
       <c r="V23" s="13">
-        <v>24</v>
+        <v>83.4</v>
       </c>
       <c r="W23" s="3" t="s">
         <v>42</v>
@@ -6863,7 +6912,7 @@
         <v>0</v>
       </c>
       <c r="AF23" s="13">
-        <v>24</v>
+        <v>83.4</v>
       </c>
       <c r="AG23" s="3" t="s">
         <v>42</v>
@@ -6874,19 +6923,19 @@
         <v>62</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D24" s="12">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E24" s="12">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F24" s="13">
-        <v>97.36</v>
+        <v>77.28</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>64</v>
@@ -6901,7 +6950,7 @@
         <v>41783</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>38</v>
@@ -6925,7 +6974,7 @@
         <v>0</v>
       </c>
       <c r="S24" s="12">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="T24" s="13">
         <v>0</v>
@@ -6934,7 +6983,7 @@
         <v>0</v>
       </c>
       <c r="V24" s="13">
-        <v>97.36</v>
+        <v>77.28</v>
       </c>
       <c r="W24" s="3" t="s">
         <v>42</v>
@@ -6964,7 +7013,7 @@
         <v>0</v>
       </c>
       <c r="AF24" s="13">
-        <v>97.36</v>
+        <v>77.28</v>
       </c>
       <c r="AG24" s="3" t="s">
         <v>42</v>
@@ -6975,19 +7024,19 @@
         <v>62</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D25" s="12">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E25" s="12">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F25" s="13">
-        <v>3000</v>
+        <v>91.2</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>64</v>
@@ -7002,7 +7051,7 @@
         <v>41783</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="L25" s="3" t="s">
         <v>38</v>
@@ -7020,22 +7069,22 @@
         <v>42</v>
       </c>
       <c r="Q25" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R25" s="13">
         <v>0</v>
       </c>
       <c r="S25" s="12">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="T25" s="13">
-        <v>2879.36</v>
+        <v>0</v>
       </c>
       <c r="U25" s="13">
         <v>0</v>
       </c>
       <c r="V25" s="13">
-        <v>120.64</v>
+        <v>91.2</v>
       </c>
       <c r="W25" s="3" t="s">
         <v>42</v>
@@ -7050,11 +7099,11 @@
         <v>44</v>
       </c>
       <c r="AA25" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB25" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AB25" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="AC25" s="13">
         <v>0</v>
       </c>
@@ -7065,111 +7114,111 @@
         <v>0</v>
       </c>
       <c r="AF25" s="13">
-        <v>0</v>
+        <v>91.2</v>
       </c>
       <c r="AG25" s="3" t="s">
-        <v>128</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:33" s="3" customFormat="1" ht="14" customHeight="1" outlineLevel="2">
-      <c r="A26" s="8" t="s">
-        <v>47</v>
+      <c r="A26" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" s="9">
-        <v>1</v>
-      </c>
-      <c r="E26" s="9">
-        <v>1</v>
-      </c>
-      <c r="F26" s="10">
-        <v>500</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="H26" s="11">
-        <v>41942</v>
-      </c>
-      <c r="I26" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="12">
+        <v>8</v>
+      </c>
+      <c r="E26" s="12">
+        <v>8</v>
+      </c>
+      <c r="F26" s="13">
+        <v>246.4</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H26" s="14">
+        <v>41783</v>
+      </c>
+      <c r="I26" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J26" s="11">
-        <v>41942</v>
-      </c>
-      <c r="K26" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="L26" s="8" t="s">
+      <c r="J26" s="14">
+        <v>41783</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="L26" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="M26" s="8" t="s">
+      <c r="M26" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N26" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="O26" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="P26" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q26" s="9">
-        <v>2</v>
-      </c>
-      <c r="R26" s="10">
-        <v>0</v>
-      </c>
-      <c r="S26" s="9">
-        <v>0</v>
-      </c>
-      <c r="T26" s="10">
-        <v>70.900000000000006</v>
-      </c>
-      <c r="U26" s="10">
-        <v>2.9</v>
-      </c>
-      <c r="V26" s="10">
-        <v>426.2</v>
-      </c>
-      <c r="W26" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="X26" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y26" s="8" t="s">
+      <c r="N26" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q26" s="12">
+        <v>0</v>
+      </c>
+      <c r="R26" s="13">
+        <v>0</v>
+      </c>
+      <c r="S26" s="12">
+        <v>8</v>
+      </c>
+      <c r="T26" s="13">
+        <v>0</v>
+      </c>
+      <c r="U26" s="13">
+        <v>0</v>
+      </c>
+      <c r="V26" s="13">
+        <v>246.4</v>
+      </c>
+      <c r="W26" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="X26" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y26" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="Z26" s="8" t="s">
+      <c r="Z26" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AA26" s="8" t="s">
+      <c r="AA26" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AB26" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC26" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD26" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE26" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF26" s="10">
-        <v>0</v>
-      </c>
-      <c r="AG26" s="8" t="s">
-        <v>61</v>
+      <c r="AB26" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC26" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="13">
+        <v>246.4</v>
+      </c>
+      <c r="AG26" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:33" s="3" customFormat="1" ht="14" customHeight="1" outlineLevel="2">
@@ -7177,19 +7226,19 @@
         <v>62</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>156</v>
+        <v>53</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D27" s="12">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="E27" s="12">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="F27" s="13">
-        <v>6960</v>
+        <v>15.6</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>64</v>
@@ -7204,7 +7253,7 @@
         <v>41783</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>38</v>
@@ -7228,7 +7277,7 @@
         <v>0</v>
       </c>
       <c r="S27" s="12">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="T27" s="13">
         <v>0</v>
@@ -7237,7 +7286,7 @@
         <v>0</v>
       </c>
       <c r="V27" s="13">
-        <v>6960</v>
+        <v>15.6</v>
       </c>
       <c r="W27" s="3" t="s">
         <v>42</v>
@@ -7267,7 +7316,7 @@
         <v>0</v>
       </c>
       <c r="AF27" s="13">
-        <v>6960</v>
+        <v>15.6</v>
       </c>
       <c r="AG27" s="3" t="s">
         <v>42</v>
@@ -7278,19 +7327,19 @@
         <v>62</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>157</v>
+        <v>78</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D28" s="12">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="E28" s="12">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="F28" s="13">
-        <v>83.4</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>64</v>
@@ -7305,7 +7354,7 @@
         <v>41783</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="L28" s="3" t="s">
         <v>38</v>
@@ -7329,7 +7378,7 @@
         <v>0</v>
       </c>
       <c r="S28" s="12">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="T28" s="13">
         <v>0</v>
@@ -7338,7 +7387,7 @@
         <v>0</v>
       </c>
       <c r="V28" s="13">
-        <v>83.4</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="W28" s="3" t="s">
         <v>42</v>
@@ -7368,7 +7417,7 @@
         <v>0</v>
       </c>
       <c r="AF28" s="13">
-        <v>83.4</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="AG28" s="3" t="s">
         <v>42</v>
@@ -7379,19 +7428,19 @@
         <v>62</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>158</v>
+        <v>68</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D29" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E29" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F29" s="13">
-        <v>77.28</v>
+        <v>108.8</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>64</v>
@@ -7406,7 +7455,7 @@
         <v>41783</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>117</v>
+        <v>69</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>38</v>
@@ -7430,7 +7479,7 @@
         <v>0</v>
       </c>
       <c r="S29" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="T29" s="13">
         <v>0</v>
@@ -7439,7 +7488,7 @@
         <v>0</v>
       </c>
       <c r="V29" s="13">
-        <v>77.28</v>
+        <v>108.8</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>42</v>
@@ -7469,7 +7518,7 @@
         <v>0</v>
       </c>
       <c r="AF29" s="13">
-        <v>77.28</v>
+        <v>108.8</v>
       </c>
       <c r="AG29" s="3" t="s">
         <v>42</v>
@@ -7480,7 +7529,7 @@
         <v>62</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>63</v>
@@ -7492,7 +7541,7 @@
         <v>8</v>
       </c>
       <c r="F30" s="13">
-        <v>91.2</v>
+        <v>129.04</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>64</v>
@@ -7507,7 +7556,7 @@
         <v>41783</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="L30" s="3" t="s">
         <v>38</v>
@@ -7540,7 +7589,7 @@
         <v>0</v>
       </c>
       <c r="V30" s="13">
-        <v>91.2</v>
+        <v>129.04</v>
       </c>
       <c r="W30" s="3" t="s">
         <v>42</v>
@@ -7570,7 +7619,7 @@
         <v>0</v>
       </c>
       <c r="AF30" s="13">
-        <v>91.2</v>
+        <v>129.04</v>
       </c>
       <c r="AG30" s="3" t="s">
         <v>42</v>
@@ -7581,7 +7630,7 @@
         <v>62</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>63</v>
@@ -7593,7 +7642,7 @@
         <v>8</v>
       </c>
       <c r="F31" s="13">
-        <v>246.4</v>
+        <v>26.88</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>64</v>
@@ -7608,7 +7657,7 @@
         <v>41783</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="L31" s="3" t="s">
         <v>38</v>
@@ -7641,7 +7690,7 @@
         <v>0</v>
       </c>
       <c r="V31" s="13">
-        <v>246.4</v>
+        <v>26.88</v>
       </c>
       <c r="W31" s="3" t="s">
         <v>42</v>
@@ -7671,7 +7720,7 @@
         <v>0</v>
       </c>
       <c r="AF31" s="13">
-        <v>246.4</v>
+        <v>26.88</v>
       </c>
       <c r="AG31" s="3" t="s">
         <v>42</v>
@@ -7682,19 +7731,19 @@
         <v>62</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>53</v>
+        <v>163</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D32" s="12">
-        <v>120</v>
+        <v>24</v>
       </c>
       <c r="E32" s="12">
-        <v>120</v>
+        <v>24</v>
       </c>
       <c r="F32" s="13">
-        <v>15.6</v>
+        <v>232.8</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>64</v>
@@ -7709,7 +7758,7 @@
         <v>41783</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>38</v>
@@ -7733,7 +7782,7 @@
         <v>0</v>
       </c>
       <c r="S32" s="12">
-        <v>120</v>
+        <v>24</v>
       </c>
       <c r="T32" s="13">
         <v>0</v>
@@ -7742,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="V32" s="13">
-        <v>15.6</v>
+        <v>232.8</v>
       </c>
       <c r="W32" s="3" t="s">
         <v>42</v>
@@ -7772,7 +7821,7 @@
         <v>0</v>
       </c>
       <c r="AF32" s="13">
-        <v>15.6</v>
+        <v>232.8</v>
       </c>
       <c r="AG32" s="3" t="s">
         <v>42</v>
@@ -7783,19 +7832,19 @@
         <v>62</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>78</v>
+        <v>164</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D33" s="12">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="E33" s="12">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="F33" s="13">
-        <v>2.2400000000000002</v>
+        <v>169.84</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>64</v>
@@ -7810,7 +7859,7 @@
         <v>41783</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>38</v>
@@ -7834,7 +7883,7 @@
         <v>0</v>
       </c>
       <c r="S33" s="12">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="T33" s="13">
         <v>0</v>
@@ -7843,7 +7892,7 @@
         <v>0</v>
       </c>
       <c r="V33" s="13">
-        <v>2.2400000000000002</v>
+        <v>169.84</v>
       </c>
       <c r="W33" s="3" t="s">
         <v>42</v>
@@ -7873,7 +7922,7 @@
         <v>0</v>
       </c>
       <c r="AF33" s="13">
-        <v>2.2400000000000002</v>
+        <v>169.84</v>
       </c>
       <c r="AG33" s="3" t="s">
         <v>42</v>
@@ -7884,19 +7933,19 @@
         <v>62</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>68</v>
+        <v>165</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D34" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E34" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F34" s="13">
-        <v>108.8</v>
+        <v>232.8</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>64</v>
@@ -7911,7 +7960,7 @@
         <v>41783</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="L34" s="3" t="s">
         <v>38</v>
@@ -7935,7 +7984,7 @@
         <v>0</v>
       </c>
       <c r="S34" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="T34" s="13">
         <v>0</v>
@@ -7944,7 +7993,7 @@
         <v>0</v>
       </c>
       <c r="V34" s="13">
-        <v>108.8</v>
+        <v>232.8</v>
       </c>
       <c r="W34" s="3" t="s">
         <v>42</v>
@@ -7974,7 +8023,7 @@
         <v>0</v>
       </c>
       <c r="AF34" s="13">
-        <v>108.8</v>
+        <v>232.8</v>
       </c>
       <c r="AG34" s="3" t="s">
         <v>42</v>
@@ -7982,35 +8031,37 @@
     </row>
     <row r="35" spans="1:33" s="3" customFormat="1" ht="14" customHeight="1" outlineLevel="2">
       <c r="A35" s="3" t="s">
-        <v>129</v>
+        <v>62</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>53</v>
+        <v>166</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>130</v>
+        <v>63</v>
       </c>
       <c r="D35" s="12">
-        <v>500</v>
+        <v>16</v>
       </c>
       <c r="E35" s="12">
-        <v>500</v>
+        <v>16</v>
       </c>
       <c r="F35" s="13">
-        <v>1000</v>
+        <v>126.4</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="H35" s="14"/>
+        <v>64</v>
+      </c>
+      <c r="H35" s="14">
+        <v>41783</v>
+      </c>
       <c r="I35" s="3" t="s">
         <v>36</v>
       </c>
       <c r="J35" s="14">
-        <v>41925</v>
+        <v>41783</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>134</v>
+        <v>93</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>38</v>
@@ -8019,10 +8070,10 @@
         <v>39</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>133</v>
+        <v>66</v>
       </c>
       <c r="O35" s="3" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="P35" s="3" t="s">
         <v>42</v>
@@ -8034,7 +8085,7 @@
         <v>0</v>
       </c>
       <c r="S35" s="12">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="T35" s="13">
         <v>0</v>
@@ -8043,7 +8094,7 @@
         <v>0</v>
       </c>
       <c r="V35" s="13">
-        <v>1000</v>
+        <v>126.4</v>
       </c>
       <c r="W35" s="3" t="s">
         <v>42</v>
@@ -8073,7 +8124,7 @@
         <v>0</v>
       </c>
       <c r="AF35" s="13">
-        <v>356</v>
+        <v>126.4</v>
       </c>
       <c r="AG35" s="3" t="s">
         <v>42</v>
@@ -8081,35 +8132,37 @@
     </row>
     <row r="36" spans="1:33" s="3" customFormat="1" ht="14" customHeight="1" outlineLevel="2">
       <c r="A36" s="3" t="s">
-        <v>129</v>
+        <v>62</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>130</v>
+        <v>63</v>
       </c>
       <c r="D36" s="12">
-        <v>500</v>
+        <v>8</v>
       </c>
       <c r="E36" s="12">
-        <v>500</v>
+        <v>8</v>
       </c>
       <c r="F36" s="13">
-        <v>1500</v>
+        <v>51.6</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="H36" s="14"/>
+        <v>64</v>
+      </c>
+      <c r="H36" s="14">
+        <v>41783</v>
+      </c>
       <c r="I36" s="3" t="s">
         <v>36</v>
       </c>
       <c r="J36" s="14">
-        <v>41925</v>
+        <v>41783</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="L36" s="3" t="s">
         <v>38</v>
@@ -8118,10 +8171,10 @@
         <v>39</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>133</v>
+        <v>66</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="P36" s="3" t="s">
         <v>42</v>
@@ -8133,7 +8186,7 @@
         <v>0</v>
       </c>
       <c r="S36" s="12">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="T36" s="13">
         <v>0</v>
@@ -8142,7 +8195,7 @@
         <v>0</v>
       </c>
       <c r="V36" s="13">
-        <v>1500</v>
+        <v>51.6</v>
       </c>
       <c r="W36" s="3" t="s">
         <v>42</v>
@@ -8172,7 +8225,7 @@
         <v>0</v>
       </c>
       <c r="AF36" s="13">
-        <v>350.79</v>
+        <v>51.6</v>
       </c>
       <c r="AG36" s="3" t="s">
         <v>42</v>
@@ -8183,7 +8236,7 @@
         <v>62</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>63</v>
@@ -8195,7 +8248,7 @@
         <v>8</v>
       </c>
       <c r="F37" s="13">
-        <v>129.04</v>
+        <v>1465.6</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>64</v>
@@ -8210,7 +8263,7 @@
         <v>41783</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="L37" s="3" t="s">
         <v>38</v>
@@ -8243,7 +8296,7 @@
         <v>0</v>
       </c>
       <c r="V37" s="13">
-        <v>129.04</v>
+        <v>1465.6</v>
       </c>
       <c r="W37" s="3" t="s">
         <v>42</v>
@@ -8273,7 +8326,7 @@
         <v>0</v>
       </c>
       <c r="AF37" s="13">
-        <v>129.04</v>
+        <v>1465.6</v>
       </c>
       <c r="AG37" s="3" t="s">
         <v>42</v>
@@ -8284,19 +8337,19 @@
         <v>62</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D38" s="12">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E38" s="12">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F38" s="13">
-        <v>26.88</v>
+        <v>4816.08</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>64</v>
@@ -8311,7 +8364,7 @@
         <v>41783</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="L38" s="3" t="s">
         <v>38</v>
@@ -8335,7 +8388,7 @@
         <v>0</v>
       </c>
       <c r="S38" s="12">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="T38" s="13">
         <v>0</v>
@@ -8344,7 +8397,7 @@
         <v>0</v>
       </c>
       <c r="V38" s="13">
-        <v>26.88</v>
+        <v>4816.08</v>
       </c>
       <c r="W38" s="3" t="s">
         <v>42</v>
@@ -8374,110 +8427,110 @@
         <v>0</v>
       </c>
       <c r="AF38" s="13">
-        <v>26.88</v>
+        <v>4816.08</v>
       </c>
       <c r="AG38" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:33" s="3" customFormat="1" ht="14" customHeight="1" outlineLevel="2">
-      <c r="A39" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D39" s="9">
-        <v>3</v>
-      </c>
-      <c r="E39" s="9">
-        <v>3</v>
-      </c>
-      <c r="F39" s="10">
-        <v>90</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="H39" s="11">
-        <v>41942</v>
-      </c>
-      <c r="I39" s="8" t="s">
+      <c r="A39" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39" s="12">
+        <v>16</v>
+      </c>
+      <c r="E39" s="12">
+        <v>16</v>
+      </c>
+      <c r="F39" s="13">
+        <v>103.84</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H39" s="14">
+        <v>41783</v>
+      </c>
+      <c r="I39" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J39" s="11">
-        <v>41942</v>
-      </c>
-      <c r="K39" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="L39" s="8" t="s">
+      <c r="J39" s="14">
+        <v>41783</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L39" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="M39" s="8" t="s">
+      <c r="M39" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N39" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="O39" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="P39" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q39" s="9">
-        <v>0</v>
-      </c>
-      <c r="R39" s="10">
-        <v>0</v>
-      </c>
-      <c r="S39" s="9">
-        <v>3</v>
-      </c>
-      <c r="T39" s="10">
-        <v>0</v>
-      </c>
-      <c r="U39" s="10">
-        <v>0</v>
-      </c>
-      <c r="V39" s="10">
-        <v>90</v>
-      </c>
-      <c r="W39" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="X39" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y39" s="8" t="s">
+      <c r="N39" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="O39" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="P39" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q39" s="12">
+        <v>0</v>
+      </c>
+      <c r="R39" s="13">
+        <v>0</v>
+      </c>
+      <c r="S39" s="12">
+        <v>16</v>
+      </c>
+      <c r="T39" s="13">
+        <v>0</v>
+      </c>
+      <c r="U39" s="13">
+        <v>0</v>
+      </c>
+      <c r="V39" s="13">
+        <v>103.84</v>
+      </c>
+      <c r="W39" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="X39" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y39" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="Z39" s="8" t="s">
+      <c r="Z39" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AA39" s="8" t="s">
+      <c r="AA39" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AB39" s="8" t="s">
+      <c r="AB39" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AC39" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD39" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE39" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF39" s="10">
-        <v>90</v>
-      </c>
-      <c r="AG39" s="8" t="s">
+      <c r="AC39" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF39" s="13">
+        <v>103.84</v>
+      </c>
+      <c r="AG39" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -8486,19 +8539,19 @@
         <v>62</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D40" s="12">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E40" s="12">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="F40" s="13">
-        <v>232.8</v>
+        <v>64.959999999999994</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>64</v>
@@ -8513,7 +8566,7 @@
         <v>41783</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="L40" s="3" t="s">
         <v>38</v>
@@ -8537,7 +8590,7 @@
         <v>0</v>
       </c>
       <c r="S40" s="12">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="T40" s="13">
         <v>0</v>
@@ -8546,7 +8599,7 @@
         <v>0</v>
       </c>
       <c r="V40" s="13">
-        <v>232.8</v>
+        <v>64.959999999999994</v>
       </c>
       <c r="W40" s="3" t="s">
         <v>42</v>
@@ -8576,7 +8629,7 @@
         <v>0</v>
       </c>
       <c r="AF40" s="13">
-        <v>232.8</v>
+        <v>64.959999999999994</v>
       </c>
       <c r="AG40" s="3" t="s">
         <v>42</v>
@@ -8587,19 +8640,19 @@
         <v>62</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D41" s="12">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E41" s="12">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F41" s="13">
-        <v>169.84</v>
+        <v>141.6</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>64</v>
@@ -8614,7 +8667,7 @@
         <v>41783</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>38</v>
@@ -8638,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="S41" s="12">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="T41" s="13">
         <v>0</v>
@@ -8647,7 +8700,7 @@
         <v>0</v>
       </c>
       <c r="V41" s="13">
-        <v>169.84</v>
+        <v>141.6</v>
       </c>
       <c r="W41" s="3" t="s">
         <v>42</v>
@@ -8677,7 +8730,7 @@
         <v>0</v>
       </c>
       <c r="AF41" s="13">
-        <v>169.84</v>
+        <v>141.6</v>
       </c>
       <c r="AG41" s="3" t="s">
         <v>42</v>
@@ -8688,7 +8741,7 @@
         <v>62</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>63</v>
@@ -8700,7 +8753,7 @@
         <v>24</v>
       </c>
       <c r="F42" s="13">
-        <v>232.8</v>
+        <v>386.4</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>64</v>
@@ -8715,7 +8768,7 @@
         <v>41783</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>38</v>
@@ -8748,7 +8801,7 @@
         <v>0</v>
       </c>
       <c r="V42" s="13">
-        <v>232.8</v>
+        <v>386.4</v>
       </c>
       <c r="W42" s="3" t="s">
         <v>42</v>
@@ -8778,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="AF42" s="13">
-        <v>232.8</v>
+        <v>386.4</v>
       </c>
       <c r="AG42" s="3" t="s">
         <v>42</v>
@@ -8789,19 +8842,19 @@
         <v>62</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D43" s="12">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="E43" s="12">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="F43" s="13">
-        <v>126.4</v>
+        <v>48.8</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>64</v>
@@ -8816,7 +8869,7 @@
         <v>41783</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>38</v>
@@ -8840,7 +8893,7 @@
         <v>0</v>
       </c>
       <c r="S43" s="12">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="T43" s="13">
         <v>0</v>
@@ -8849,7 +8902,7 @@
         <v>0</v>
       </c>
       <c r="V43" s="13">
-        <v>126.4</v>
+        <v>48.8</v>
       </c>
       <c r="W43" s="3" t="s">
         <v>42</v>
@@ -8879,7 +8932,7 @@
         <v>0</v>
       </c>
       <c r="AF43" s="13">
-        <v>126.4</v>
+        <v>48.8</v>
       </c>
       <c r="AG43" s="3" t="s">
         <v>42</v>
@@ -8890,19 +8943,19 @@
         <v>62</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D44" s="12">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E44" s="12">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F44" s="13">
-        <v>51.6</v>
+        <v>124.5</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>64</v>
@@ -8917,7 +8970,7 @@
         <v>41783</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>38</v>
@@ -8941,7 +8994,7 @@
         <v>0</v>
       </c>
       <c r="S44" s="12">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="T44" s="13">
         <v>0</v>
@@ -8950,7 +9003,7 @@
         <v>0</v>
       </c>
       <c r="V44" s="13">
-        <v>51.6</v>
+        <v>124.5</v>
       </c>
       <c r="W44" s="3" t="s">
         <v>42</v>
@@ -8980,7 +9033,7 @@
         <v>0</v>
       </c>
       <c r="AF44" s="13">
-        <v>51.6</v>
+        <v>124.5</v>
       </c>
       <c r="AG44" s="3" t="s">
         <v>42</v>
@@ -8991,19 +9044,19 @@
         <v>62</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D45" s="12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E45" s="12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F45" s="13">
-        <v>1465.6</v>
+        <v>4.55</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>64</v>
@@ -9018,7 +9071,7 @@
         <v>41783</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>38</v>
@@ -9042,7 +9095,7 @@
         <v>0</v>
       </c>
       <c r="S45" s="12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T45" s="13">
         <v>0</v>
@@ -9051,7 +9104,7 @@
         <v>0</v>
       </c>
       <c r="V45" s="13">
-        <v>1465.6</v>
+        <v>4.55</v>
       </c>
       <c r="W45" s="3" t="s">
         <v>42</v>
@@ -9081,7 +9134,7 @@
         <v>0</v>
       </c>
       <c r="AF45" s="13">
-        <v>1465.6</v>
+        <v>4.55</v>
       </c>
       <c r="AG45" s="3" t="s">
         <v>42</v>
@@ -9092,19 +9145,19 @@
         <v>62</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D46" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E46" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F46" s="13">
-        <v>4816.08</v>
+        <v>31.36</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>64</v>
@@ -9119,7 +9172,7 @@
         <v>41783</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="L46" s="3" t="s">
         <v>38</v>
@@ -9143,7 +9196,7 @@
         <v>0</v>
       </c>
       <c r="S46" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="T46" s="13">
         <v>0</v>
@@ -9152,7 +9205,7 @@
         <v>0</v>
       </c>
       <c r="V46" s="13">
-        <v>4816.08</v>
+        <v>31.36</v>
       </c>
       <c r="W46" s="3" t="s">
         <v>42</v>
@@ -9182,7 +9235,7 @@
         <v>0</v>
       </c>
       <c r="AF46" s="13">
-        <v>4816.08</v>
+        <v>31.36</v>
       </c>
       <c r="AG46" s="3" t="s">
         <v>42</v>
@@ -9193,19 +9246,19 @@
         <v>62</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D47" s="12">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E47" s="12">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F47" s="13">
-        <v>103.84</v>
+        <v>46</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>64</v>
@@ -9220,7 +9273,7 @@
         <v>41783</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>38</v>
@@ -9244,7 +9297,7 @@
         <v>0</v>
       </c>
       <c r="S47" s="12">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="T47" s="13">
         <v>0</v>
@@ -9253,7 +9306,7 @@
         <v>0</v>
       </c>
       <c r="V47" s="13">
-        <v>103.84</v>
+        <v>46</v>
       </c>
       <c r="W47" s="3" t="s">
         <v>42</v>
@@ -9283,7 +9336,7 @@
         <v>0</v>
       </c>
       <c r="AF47" s="13">
-        <v>103.84</v>
+        <v>46</v>
       </c>
       <c r="AG47" s="3" t="s">
         <v>42</v>
@@ -9294,7 +9347,7 @@
         <v>62</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>63</v>
@@ -9306,7 +9359,7 @@
         <v>8</v>
       </c>
       <c r="F48" s="13">
-        <v>64.959999999999994</v>
+        <v>520</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>64</v>
@@ -9321,7 +9374,7 @@
         <v>41783</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>38</v>
@@ -9354,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="V48" s="13">
-        <v>64.959999999999994</v>
+        <v>520</v>
       </c>
       <c r="W48" s="3" t="s">
         <v>42</v>
@@ -9384,7 +9437,7 @@
         <v>0</v>
       </c>
       <c r="AF48" s="13">
-        <v>64.959999999999994</v>
+        <v>520</v>
       </c>
       <c r="AG48" s="3" t="s">
         <v>42</v>
@@ -9395,7 +9448,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>63</v>
@@ -9407,7 +9460,7 @@
         <v>24</v>
       </c>
       <c r="F49" s="13">
-        <v>141.6</v>
+        <v>217.68</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>64</v>
@@ -9422,7 +9475,7 @@
         <v>41783</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>38</v>
@@ -9455,7 +9508,7 @@
         <v>0</v>
       </c>
       <c r="V49" s="13">
-        <v>141.6</v>
+        <v>217.68</v>
       </c>
       <c r="W49" s="3" t="s">
         <v>42</v>
@@ -9485,7 +9538,7 @@
         <v>0</v>
       </c>
       <c r="AF49" s="13">
-        <v>141.6</v>
+        <v>217.68</v>
       </c>
       <c r="AG49" s="3" t="s">
         <v>42</v>
@@ -9496,19 +9549,19 @@
         <v>62</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>173</v>
+        <v>33</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D50" s="12">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E50" s="12">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="F50" s="13">
-        <v>386.4</v>
+        <v>1283.52</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>64</v>
@@ -9523,7 +9576,7 @@
         <v>41783</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="L50" s="3" t="s">
         <v>38</v>
@@ -9547,7 +9600,7 @@
         <v>0</v>
       </c>
       <c r="S50" s="12">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="T50" s="13">
         <v>0</v>
@@ -9556,7 +9609,7 @@
         <v>0</v>
       </c>
       <c r="V50" s="13">
-        <v>386.4</v>
+        <v>1283.52</v>
       </c>
       <c r="W50" s="3" t="s">
         <v>42</v>
@@ -9586,7 +9639,7 @@
         <v>0</v>
       </c>
       <c r="AF50" s="13">
-        <v>386.4</v>
+        <v>1283.52</v>
       </c>
       <c r="AG50" s="3" t="s">
         <v>42</v>
@@ -9597,19 +9650,19 @@
         <v>62</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D51" s="12">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="E51" s="12">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="F51" s="13">
-        <v>48.8</v>
+        <v>2962.4</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>64</v>
@@ -9624,7 +9677,7 @@
         <v>41783</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="L51" s="3" t="s">
         <v>38</v>
@@ -9648,7 +9701,7 @@
         <v>0</v>
       </c>
       <c r="S51" s="12">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="T51" s="13">
         <v>0</v>
@@ -9657,7 +9710,7 @@
         <v>0</v>
       </c>
       <c r="V51" s="13">
-        <v>48.8</v>
+        <v>2962.4</v>
       </c>
       <c r="W51" s="3" t="s">
         <v>42</v>
@@ -9687,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="AF51" s="13">
-        <v>48.8</v>
+        <v>2962.4</v>
       </c>
       <c r="AG51" s="3" t="s">
         <v>42</v>
@@ -9698,19 +9751,19 @@
         <v>62</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D52" s="12">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E52" s="12">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F52" s="13">
-        <v>124.5</v>
+        <v>219.52</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>64</v>
@@ -9725,7 +9778,7 @@
         <v>41783</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>38</v>
@@ -9749,7 +9802,7 @@
         <v>0</v>
       </c>
       <c r="S52" s="12">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="T52" s="13">
         <v>0</v>
@@ -9758,7 +9811,7 @@
         <v>0</v>
       </c>
       <c r="V52" s="13">
-        <v>124.5</v>
+        <v>219.52</v>
       </c>
       <c r="W52" s="3" t="s">
         <v>42</v>
@@ -9788,7 +9841,7 @@
         <v>0</v>
       </c>
       <c r="AF52" s="13">
-        <v>124.5</v>
+        <v>219.52</v>
       </c>
       <c r="AG52" s="3" t="s">
         <v>42</v>
@@ -9799,19 +9852,19 @@
         <v>62</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D53" s="12">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E53" s="12">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F53" s="13">
-        <v>4.55</v>
+        <v>212.8</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>64</v>
@@ -9826,7 +9879,7 @@
         <v>41783</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="L53" s="3" t="s">
         <v>38</v>
@@ -9850,7 +9903,7 @@
         <v>0</v>
       </c>
       <c r="S53" s="12">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="T53" s="13">
         <v>0</v>
@@ -9859,7 +9912,7 @@
         <v>0</v>
       </c>
       <c r="V53" s="13">
-        <v>4.55</v>
+        <v>212.8</v>
       </c>
       <c r="W53" s="3" t="s">
         <v>42</v>
@@ -9889,7 +9942,7 @@
         <v>0</v>
       </c>
       <c r="AF53" s="13">
-        <v>4.55</v>
+        <v>212.8</v>
       </c>
       <c r="AG53" s="3" t="s">
         <v>42</v>
@@ -9900,19 +9953,19 @@
         <v>62</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D54" s="12">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E54" s="12">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F54" s="13">
-        <v>31.36</v>
+        <v>162.4</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>64</v>
@@ -9927,7 +9980,7 @@
         <v>41783</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="L54" s="3" t="s">
         <v>38</v>
@@ -9951,7 +10004,7 @@
         <v>0</v>
       </c>
       <c r="S54" s="12">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="T54" s="13">
         <v>0</v>
@@ -9960,7 +10013,7 @@
         <v>0</v>
       </c>
       <c r="V54" s="13">
-        <v>31.36</v>
+        <v>162.4</v>
       </c>
       <c r="W54" s="3" t="s">
         <v>42</v>
@@ -9990,7 +10043,7 @@
         <v>0</v>
       </c>
       <c r="AF54" s="13">
-        <v>31.36</v>
+        <v>162.4</v>
       </c>
       <c r="AG54" s="3" t="s">
         <v>42</v>
@@ -10001,19 +10054,19 @@
         <v>62</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>178</v>
+        <v>137</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D55" s="12">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E55" s="12">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F55" s="13">
-        <v>46</v>
+        <v>235.68</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>64</v>
@@ -10028,7 +10081,7 @@
         <v>41783</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="L55" s="3" t="s">
         <v>38</v>
@@ -10052,7 +10105,7 @@
         <v>0</v>
       </c>
       <c r="S55" s="12">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="T55" s="13">
         <v>0</v>
@@ -10061,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="V55" s="13">
-        <v>46</v>
+        <v>235.68</v>
       </c>
       <c r="W55" s="3" t="s">
         <v>42</v>
@@ -10091,7 +10144,7 @@
         <v>0</v>
       </c>
       <c r="AF55" s="13">
-        <v>46</v>
+        <v>235.68</v>
       </c>
       <c r="AG55" s="3" t="s">
         <v>42</v>
@@ -10102,19 +10155,19 @@
         <v>62</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D56" s="12">
-        <v>8</v>
+        <v>160</v>
       </c>
       <c r="E56" s="12">
-        <v>8</v>
+        <v>160</v>
       </c>
       <c r="F56" s="13">
-        <v>520</v>
+        <v>22.4</v>
       </c>
       <c r="G56" s="3" t="s">
         <v>64</v>
@@ -10129,7 +10182,7 @@
         <v>41783</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="L56" s="3" t="s">
         <v>38</v>
@@ -10153,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="S56" s="12">
-        <v>8</v>
+        <v>160</v>
       </c>
       <c r="T56" s="13">
         <v>0</v>
@@ -10162,7 +10215,7 @@
         <v>0</v>
       </c>
       <c r="V56" s="13">
-        <v>520</v>
+        <v>22.4</v>
       </c>
       <c r="W56" s="3" t="s">
         <v>42</v>
@@ -10192,7 +10245,7 @@
         <v>0</v>
       </c>
       <c r="AF56" s="13">
-        <v>520</v>
+        <v>22.4</v>
       </c>
       <c r="AG56" s="3" t="s">
         <v>42</v>
@@ -10203,19 +10256,19 @@
         <v>62</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D57" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E57" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F57" s="13">
-        <v>217.68</v>
+        <v>23.52</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>64</v>
@@ -10230,7 +10283,7 @@
         <v>41783</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>38</v>
@@ -10254,7 +10307,7 @@
         <v>0</v>
       </c>
       <c r="S57" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="T57" s="13">
         <v>0</v>
@@ -10263,7 +10316,7 @@
         <v>0</v>
       </c>
       <c r="V57" s="13">
-        <v>217.68</v>
+        <v>23.52</v>
       </c>
       <c r="W57" s="3" t="s">
         <v>42</v>
@@ -10293,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="AF57" s="13">
-        <v>217.68</v>
+        <v>23.52</v>
       </c>
       <c r="AG57" s="3" t="s">
         <v>42</v>
@@ -10304,19 +10357,19 @@
         <v>62</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>33</v>
+        <v>187</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D58" s="12">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E58" s="12">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F58" s="13">
-        <v>1283.52</v>
+        <v>31.36</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>64</v>
@@ -10331,7 +10384,7 @@
         <v>41783</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>38</v>
@@ -10355,7 +10408,7 @@
         <v>0</v>
       </c>
       <c r="S58" s="12">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="T58" s="13">
         <v>0</v>
@@ -10364,7 +10417,7 @@
         <v>0</v>
       </c>
       <c r="V58" s="13">
-        <v>1283.52</v>
+        <v>31.36</v>
       </c>
       <c r="W58" s="3" t="s">
         <v>42</v>
@@ -10394,110 +10447,110 @@
         <v>0</v>
       </c>
       <c r="AF58" s="13">
-        <v>1283.52</v>
+        <v>31.36</v>
       </c>
       <c r="AG58" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="59" spans="1:33" s="3" customFormat="1" ht="14" customHeight="1" outlineLevel="2">
-      <c r="A59" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D59" s="9">
-        <v>3</v>
-      </c>
-      <c r="E59" s="9">
-        <v>3</v>
-      </c>
-      <c r="F59" s="10">
-        <v>141</v>
-      </c>
-      <c r="G59" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="H59" s="11">
-        <v>41942</v>
-      </c>
-      <c r="I59" s="8" t="s">
+      <c r="A59" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D59" s="12">
+        <v>120</v>
+      </c>
+      <c r="E59" s="12">
+        <v>120</v>
+      </c>
+      <c r="F59" s="13">
+        <v>235.2</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H59" s="14">
+        <v>41783</v>
+      </c>
+      <c r="I59" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J59" s="11">
-        <v>41942</v>
-      </c>
-      <c r="K59" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="L59" s="8" t="s">
+      <c r="J59" s="14">
+        <v>41783</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="L59" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="M59" s="8" t="s">
+      <c r="M59" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N59" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="O59" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="P59" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q59" s="9">
-        <v>0</v>
-      </c>
-      <c r="R59" s="10">
-        <v>0</v>
-      </c>
-      <c r="S59" s="9">
-        <v>3</v>
-      </c>
-      <c r="T59" s="10">
-        <v>0</v>
-      </c>
-      <c r="U59" s="10">
-        <v>0</v>
-      </c>
-      <c r="V59" s="10">
-        <v>141</v>
-      </c>
-      <c r="W59" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="X59" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y59" s="8" t="s">
+      <c r="N59" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q59" s="12">
+        <v>0</v>
+      </c>
+      <c r="R59" s="13">
+        <v>0</v>
+      </c>
+      <c r="S59" s="12">
+        <v>120</v>
+      </c>
+      <c r="T59" s="13">
+        <v>0</v>
+      </c>
+      <c r="U59" s="13">
+        <v>0</v>
+      </c>
+      <c r="V59" s="13">
+        <v>235.2</v>
+      </c>
+      <c r="W59" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="X59" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y59" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="Z59" s="8" t="s">
+      <c r="Z59" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AA59" s="8" t="s">
+      <c r="AA59" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AB59" s="8" t="s">
+      <c r="AB59" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AC59" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD59" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE59" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF59" s="10">
-        <v>141</v>
-      </c>
-      <c r="AG59" s="8" t="s">
+      <c r="AC59" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE59" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF59" s="13">
+        <v>235.2</v>
+      </c>
+      <c r="AG59" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -10506,19 +10559,19 @@
         <v>62</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D60" s="12">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E60" s="12">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F60" s="13">
-        <v>2962.4</v>
+        <v>13.44</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>64</v>
@@ -10533,7 +10586,7 @@
         <v>41783</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="L60" s="3" t="s">
         <v>38</v>
@@ -10557,7 +10610,7 @@
         <v>0</v>
       </c>
       <c r="S60" s="12">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="T60" s="13">
         <v>0</v>
@@ -10566,7 +10619,7 @@
         <v>0</v>
       </c>
       <c r="V60" s="13">
-        <v>2962.4</v>
+        <v>13.44</v>
       </c>
       <c r="W60" s="3" t="s">
         <v>42</v>
@@ -10596,7 +10649,7 @@
         <v>0</v>
       </c>
       <c r="AF60" s="13">
-        <v>2962.4</v>
+        <v>13.44</v>
       </c>
       <c r="AG60" s="3" t="s">
         <v>42</v>
@@ -10607,19 +10660,19 @@
         <v>62</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D61" s="12">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E61" s="12">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F61" s="13">
-        <v>219.52</v>
+        <v>13.44</v>
       </c>
       <c r="G61" s="3" t="s">
         <v>64</v>
@@ -10634,7 +10687,7 @@
         <v>41783</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="L61" s="3" t="s">
         <v>38</v>
@@ -10658,7 +10711,7 @@
         <v>0</v>
       </c>
       <c r="S61" s="12">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="T61" s="13">
         <v>0</v>
@@ -10667,7 +10720,7 @@
         <v>0</v>
       </c>
       <c r="V61" s="13">
-        <v>219.52</v>
+        <v>13.44</v>
       </c>
       <c r="W61" s="3" t="s">
         <v>42</v>
@@ -10697,7 +10750,7 @@
         <v>0</v>
       </c>
       <c r="AF61" s="13">
-        <v>219.52</v>
+        <v>13.44</v>
       </c>
       <c r="AG61" s="3" t="s">
         <v>42</v>
@@ -10705,37 +10758,35 @@
     </row>
     <row r="62" spans="1:33" s="3" customFormat="1" ht="14" customHeight="1" outlineLevel="2">
       <c r="A62" s="3" t="s">
-        <v>62</v>
+        <v>129</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>183</v>
+        <v>137</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="D62" s="12">
-        <v>16</v>
+        <v>500</v>
       </c>
       <c r="E62" s="12">
-        <v>16</v>
+        <v>500</v>
       </c>
       <c r="F62" s="13">
-        <v>212.8</v>
+        <v>500</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H62" s="14">
-        <v>41783</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="H62" s="14"/>
       <c r="I62" s="3" t="s">
         <v>36</v>
       </c>
       <c r="J62" s="14">
-        <v>41783</v>
+        <v>41925</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>38</v>
@@ -10744,10 +10795,10 @@
         <v>39</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>66</v>
+        <v>133</v>
       </c>
       <c r="O62" s="3" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>42</v>
@@ -10759,7 +10810,7 @@
         <v>0</v>
       </c>
       <c r="S62" s="12">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="T62" s="13">
         <v>0</v>
@@ -10768,7 +10819,7 @@
         <v>0</v>
       </c>
       <c r="V62" s="13">
-        <v>212.8</v>
+        <v>500</v>
       </c>
       <c r="W62" s="3" t="s">
         <v>42</v>
@@ -10798,7 +10849,7 @@
         <v>0</v>
       </c>
       <c r="AF62" s="13">
-        <v>212.8</v>
+        <v>237.23</v>
       </c>
       <c r="AG62" s="3" t="s">
         <v>42</v>
@@ -10806,37 +10857,35 @@
     </row>
     <row r="63" spans="1:33" s="3" customFormat="1" ht="14" customHeight="1" outlineLevel="2">
       <c r="A63" s="3" t="s">
-        <v>62</v>
+        <v>129</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>184</v>
+        <v>56</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="D63" s="12">
-        <v>8</v>
+        <v>500</v>
       </c>
       <c r="E63" s="12">
-        <v>8</v>
+        <v>500</v>
       </c>
       <c r="F63" s="13">
-        <v>162.4</v>
+        <v>2500</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H63" s="14">
-        <v>41783</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="H63" s="14"/>
       <c r="I63" s="3" t="s">
         <v>36</v>
       </c>
       <c r="J63" s="14">
-        <v>41783</v>
+        <v>41925</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="L63" s="3" t="s">
         <v>38</v>
@@ -10845,10 +10894,10 @@
         <v>39</v>
       </c>
       <c r="N63" s="3" t="s">
-        <v>66</v>
+        <v>133</v>
       </c>
       <c r="O63" s="3" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="P63" s="3" t="s">
         <v>42</v>
@@ -10860,7 +10909,7 @@
         <v>0</v>
       </c>
       <c r="S63" s="12">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="T63" s="13">
         <v>0</v>
@@ -10869,7 +10918,7 @@
         <v>0</v>
       </c>
       <c r="V63" s="13">
-        <v>162.4</v>
+        <v>2500</v>
       </c>
       <c r="W63" s="3" t="s">
         <v>42</v>
@@ -10899,7 +10948,7 @@
         <v>0</v>
       </c>
       <c r="AF63" s="13">
-        <v>162.4</v>
+        <v>670.45</v>
       </c>
       <c r="AG63" s="3" t="s">
         <v>42</v>
@@ -10907,37 +10956,35 @@
     </row>
     <row r="64" spans="1:33" s="3" customFormat="1" ht="14" customHeight="1" outlineLevel="2">
       <c r="A64" s="3" t="s">
-        <v>62</v>
+        <v>129</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>137</v>
+        <v>33</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="D64" s="12">
-        <v>24</v>
+        <v>500</v>
       </c>
       <c r="E64" s="12">
-        <v>24</v>
+        <v>500</v>
       </c>
       <c r="F64" s="13">
-        <v>235.68</v>
+        <v>2500</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H64" s="14">
-        <v>41783</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="H64" s="14"/>
       <c r="I64" s="3" t="s">
         <v>36</v>
       </c>
       <c r="J64" s="14">
-        <v>41783</v>
+        <v>41925</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>70</v>
+        <v>132</v>
       </c>
       <c r="L64" s="3" t="s">
         <v>38</v>
@@ -10946,10 +10993,10 @@
         <v>39</v>
       </c>
       <c r="N64" s="3" t="s">
-        <v>66</v>
+        <v>133</v>
       </c>
       <c r="O64" s="3" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="P64" s="3" t="s">
         <v>42</v>
@@ -10961,7 +11008,7 @@
         <v>0</v>
       </c>
       <c r="S64" s="12">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="T64" s="13">
         <v>0</v>
@@ -10970,7 +11017,7 @@
         <v>0</v>
       </c>
       <c r="V64" s="13">
-        <v>235.68</v>
+        <v>2500</v>
       </c>
       <c r="W64" s="3" t="s">
         <v>42</v>
@@ -11000,7 +11047,7 @@
         <v>0</v>
       </c>
       <c r="AF64" s="13">
-        <v>235.68</v>
+        <v>479.68</v>
       </c>
       <c r="AG64" s="3" t="s">
         <v>42</v>
@@ -11008,37 +11055,35 @@
     </row>
     <row r="65" spans="1:33" s="3" customFormat="1" ht="14" customHeight="1" outlineLevel="2">
       <c r="A65" s="3" t="s">
-        <v>62</v>
+        <v>129</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>185</v>
+        <v>53</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="D65" s="12">
-        <v>160</v>
+        <v>500</v>
       </c>
       <c r="E65" s="12">
-        <v>160</v>
+        <v>500</v>
       </c>
       <c r="F65" s="13">
-        <v>22.4</v>
+        <v>1000</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H65" s="14">
-        <v>41783</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="H65" s="14"/>
       <c r="I65" s="3" t="s">
         <v>36</v>
       </c>
       <c r="J65" s="14">
-        <v>41783</v>
+        <v>41925</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>71</v>
+        <v>134</v>
       </c>
       <c r="L65" s="3" t="s">
         <v>38</v>
@@ -11047,10 +11092,10 @@
         <v>39</v>
       </c>
       <c r="N65" s="3" t="s">
-        <v>66</v>
+        <v>133</v>
       </c>
       <c r="O65" s="3" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="P65" s="3" t="s">
         <v>42</v>
@@ -11062,7 +11107,7 @@
         <v>0</v>
       </c>
       <c r="S65" s="12">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="T65" s="13">
         <v>0</v>
@@ -11071,7 +11116,7 @@
         <v>0</v>
       </c>
       <c r="V65" s="13">
-        <v>22.4</v>
+        <v>1000</v>
       </c>
       <c r="W65" s="3" t="s">
         <v>42</v>
@@ -11101,7 +11146,7 @@
         <v>0</v>
       </c>
       <c r="AF65" s="13">
-        <v>22.4</v>
+        <v>356</v>
       </c>
       <c r="AG65" s="3" t="s">
         <v>42</v>
@@ -11109,37 +11154,35 @@
     </row>
     <row r="66" spans="1:33" s="3" customFormat="1" ht="14" customHeight="1" outlineLevel="2">
       <c r="A66" s="3" t="s">
-        <v>62</v>
+        <v>129</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>186</v>
+        <v>58</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="D66" s="12">
-        <v>12</v>
+        <v>500</v>
       </c>
       <c r="E66" s="12">
-        <v>12</v>
+        <v>500</v>
       </c>
       <c r="F66" s="13">
-        <v>23.52</v>
+        <v>1500</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H66" s="14">
-        <v>41783</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="H66" s="14"/>
       <c r="I66" s="3" t="s">
         <v>36</v>
       </c>
       <c r="J66" s="14">
-        <v>41783</v>
+        <v>41925</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="L66" s="3" t="s">
         <v>38</v>
@@ -11148,10 +11191,10 @@
         <v>39</v>
       </c>
       <c r="N66" s="3" t="s">
-        <v>66</v>
+        <v>133</v>
       </c>
       <c r="O66" s="3" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="P66" s="3" t="s">
         <v>42</v>
@@ -11163,7 +11206,7 @@
         <v>0</v>
       </c>
       <c r="S66" s="12">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="T66" s="13">
         <v>0</v>
@@ -11172,7 +11215,7 @@
         <v>0</v>
       </c>
       <c r="V66" s="13">
-        <v>23.52</v>
+        <v>1500</v>
       </c>
       <c r="W66" s="3" t="s">
         <v>42</v>
@@ -11202,419 +11245,621 @@
         <v>0</v>
       </c>
       <c r="AF66" s="13">
-        <v>23.52</v>
+        <v>350.79</v>
       </c>
       <c r="AG66" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="67" spans="1:33" s="3" customFormat="1" ht="14" customHeight="1" outlineLevel="2">
-      <c r="A67" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D67" s="12">
-        <v>16</v>
-      </c>
-      <c r="E67" s="12">
-        <v>16</v>
-      </c>
-      <c r="F67" s="13">
-        <v>31.36</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H67" s="14">
-        <v>41783</v>
-      </c>
-      <c r="I67" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J67" s="14">
-        <v>41783</v>
-      </c>
-      <c r="K67" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="L67" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="M67" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N67" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="O67" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="P67" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q67" s="12">
-        <v>0</v>
-      </c>
-      <c r="R67" s="13">
-        <v>0</v>
-      </c>
-      <c r="S67" s="12">
-        <v>16</v>
-      </c>
-      <c r="T67" s="13">
-        <v>0</v>
-      </c>
-      <c r="U67" s="13">
-        <v>0</v>
-      </c>
-      <c r="V67" s="13">
-        <v>31.36</v>
-      </c>
-      <c r="W67" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="X67" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y67" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z67" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA67" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB67" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC67" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD67" s="13">
-        <v>0</v>
-      </c>
-      <c r="AE67" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF67" s="13">
-        <v>31.36</v>
-      </c>
-      <c r="AG67" s="3" t="s">
+    <row r="67" spans="1:33" s="3" customFormat="1" outlineLevel="1">
+      <c r="A67" s="17">
+        <v>20157313</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C67" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D67" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E67" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F67" s="16">
+        <v>7500</v>
+      </c>
+      <c r="G67" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H67" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="I67" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="J67" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="K67" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="L67" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="M67" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="N67" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="O67" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="P67" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q67" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="R67" s="16">
+        <v>0</v>
+      </c>
+      <c r="S67" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="T67" s="16">
+        <v>0</v>
+      </c>
+      <c r="U67" s="16">
+        <v>0</v>
+      </c>
+      <c r="V67" s="16">
+        <v>7500</v>
+      </c>
+      <c r="W67" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="X67" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y67" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z67" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA67" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB67" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC67" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD67" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE67" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF67" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG67" s="15" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="68" spans="1:33" s="3" customFormat="1" ht="14" customHeight="1" outlineLevel="2">
-      <c r="A68" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D68" s="12">
-        <v>120</v>
-      </c>
-      <c r="E68" s="12">
-        <v>120</v>
-      </c>
-      <c r="F68" s="13">
-        <v>235.2</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H68" s="14">
-        <v>41783</v>
-      </c>
-      <c r="I68" s="3" t="s">
+      <c r="A68" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D68" s="9">
+        <v>3</v>
+      </c>
+      <c r="E68" s="9">
+        <v>3</v>
+      </c>
+      <c r="F68" s="10">
+        <v>3705</v>
+      </c>
+      <c r="G68" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H68" s="11">
+        <v>41942</v>
+      </c>
+      <c r="I68" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J68" s="14">
-        <v>41783</v>
-      </c>
-      <c r="K68" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="L68" s="3" t="s">
+      <c r="J68" s="11">
+        <v>41942</v>
+      </c>
+      <c r="K68" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L68" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="M68" s="3" t="s">
+      <c r="M68" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="N68" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="O68" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="P68" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q68" s="12">
-        <v>0</v>
-      </c>
-      <c r="R68" s="13">
-        <v>0</v>
-      </c>
-      <c r="S68" s="12">
-        <v>120</v>
-      </c>
-      <c r="T68" s="13">
-        <v>0</v>
-      </c>
-      <c r="U68" s="13">
-        <v>0</v>
-      </c>
-      <c r="V68" s="13">
-        <v>235.2</v>
-      </c>
-      <c r="W68" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="X68" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y68" s="3" t="s">
+      <c r="N68" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="O68" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P68" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q68" s="9">
+        <v>0</v>
+      </c>
+      <c r="R68" s="10">
+        <v>0</v>
+      </c>
+      <c r="S68" s="9">
+        <v>3</v>
+      </c>
+      <c r="T68" s="10">
+        <v>0</v>
+      </c>
+      <c r="U68" s="10">
+        <v>0</v>
+      </c>
+      <c r="V68" s="10">
+        <v>3705</v>
+      </c>
+      <c r="W68" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="X68" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y68" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="Z68" s="3" t="s">
+      <c r="Z68" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AA68" s="3" t="s">
+      <c r="AA68" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AB68" s="3" t="s">
+      <c r="AB68" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AC68" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD68" s="13">
-        <v>0</v>
-      </c>
-      <c r="AE68" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF68" s="13">
-        <v>235.2</v>
-      </c>
-      <c r="AG68" s="3" t="s">
+      <c r="AC68" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF68" s="10">
+        <v>3686.47</v>
+      </c>
+      <c r="AG68" s="8" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="69" spans="1:33" s="3" customFormat="1" ht="14" customHeight="1" outlineLevel="2">
-      <c r="A69" s="3" t="s">
-        <v>62</v>
+      <c r="A69" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D69" s="12">
-        <v>24</v>
-      </c>
-      <c r="E69" s="12">
-        <v>24</v>
-      </c>
-      <c r="F69" s="13">
-        <v>13.44</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H69" s="14">
-        <v>41783</v>
-      </c>
-      <c r="I69" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D69" s="9">
+        <v>1</v>
+      </c>
+      <c r="E69" s="9">
+        <v>1</v>
+      </c>
+      <c r="F69" s="10">
+        <v>500</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H69" s="11">
+        <v>41942</v>
+      </c>
+      <c r="I69" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J69" s="14">
-        <v>41783</v>
-      </c>
-      <c r="K69" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="L69" s="3" t="s">
+      <c r="J69" s="11">
+        <v>41942</v>
+      </c>
+      <c r="K69" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="L69" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="M69" s="3" t="s">
+      <c r="M69" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="N69" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="O69" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="P69" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q69" s="12">
-        <v>0</v>
-      </c>
-      <c r="R69" s="13">
-        <v>0</v>
-      </c>
-      <c r="S69" s="12">
-        <v>24</v>
-      </c>
-      <c r="T69" s="13">
-        <v>0</v>
-      </c>
-      <c r="U69" s="13">
-        <v>0</v>
-      </c>
-      <c r="V69" s="13">
-        <v>13.44</v>
-      </c>
-      <c r="W69" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="X69" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y69" s="3" t="s">
+      <c r="N69" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="O69" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P69" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q69" s="9">
+        <v>2</v>
+      </c>
+      <c r="R69" s="10">
+        <v>0</v>
+      </c>
+      <c r="S69" s="9">
+        <v>0</v>
+      </c>
+      <c r="T69" s="10">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="U69" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="V69" s="10">
+        <v>426.2</v>
+      </c>
+      <c r="W69" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="X69" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y69" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="Z69" s="3" t="s">
+      <c r="Z69" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AA69" s="3" t="s">
+      <c r="AA69" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AB69" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC69" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD69" s="13">
-        <v>0</v>
-      </c>
-      <c r="AE69" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF69" s="13">
-        <v>13.44</v>
-      </c>
-      <c r="AG69" s="3" t="s">
-        <v>42</v>
+      <c r="AB69" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC69" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF69" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG69" s="8" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="70" spans="1:33" s="3" customFormat="1" ht="14" customHeight="1" outlineLevel="2">
-      <c r="A70" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D70" s="12">
-        <v>24</v>
-      </c>
-      <c r="E70" s="12">
-        <v>24</v>
-      </c>
-      <c r="F70" s="13">
-        <v>13.44</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H70" s="14">
-        <v>41783</v>
-      </c>
-      <c r="I70" s="3" t="s">
+      <c r="A70" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D70" s="9">
+        <v>3</v>
+      </c>
+      <c r="E70" s="9">
+        <v>3</v>
+      </c>
+      <c r="F70" s="10">
+        <v>90</v>
+      </c>
+      <c r="G70" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H70" s="11">
+        <v>41942</v>
+      </c>
+      <c r="I70" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J70" s="14">
-        <v>41783</v>
-      </c>
-      <c r="K70" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="L70" s="3" t="s">
+      <c r="J70" s="11">
+        <v>41942</v>
+      </c>
+      <c r="K70" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L70" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="M70" s="3" t="s">
+      <c r="M70" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="N70" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="O70" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="P70" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q70" s="12">
-        <v>0</v>
-      </c>
-      <c r="R70" s="13">
-        <v>0</v>
-      </c>
-      <c r="S70" s="12">
-        <v>24</v>
-      </c>
-      <c r="T70" s="13">
-        <v>0</v>
-      </c>
-      <c r="U70" s="13">
-        <v>0</v>
-      </c>
-      <c r="V70" s="13">
-        <v>13.44</v>
-      </c>
-      <c r="W70" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="X70" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y70" s="3" t="s">
+      <c r="N70" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="O70" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P70" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q70" s="9">
+        <v>0</v>
+      </c>
+      <c r="R70" s="10">
+        <v>0</v>
+      </c>
+      <c r="S70" s="9">
+        <v>3</v>
+      </c>
+      <c r="T70" s="10">
+        <v>0</v>
+      </c>
+      <c r="U70" s="10">
+        <v>0</v>
+      </c>
+      <c r="V70" s="10">
+        <v>90</v>
+      </c>
+      <c r="W70" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="X70" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y70" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="Z70" s="3" t="s">
+      <c r="Z70" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AA70" s="3" t="s">
+      <c r="AA70" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AB70" s="3" t="s">
+      <c r="AB70" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AC70" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD70" s="13">
-        <v>0</v>
-      </c>
-      <c r="AE70" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF70" s="13">
-        <v>13.44</v>
-      </c>
-      <c r="AG70" s="3" t="s">
+      <c r="AC70" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF70" s="10">
+        <v>90</v>
+      </c>
+      <c r="AG70" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="71" spans="1:33" s="3" customFormat="1" ht="14" customHeight="1" outlineLevel="2">
+      <c r="A71" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D71" s="9">
+        <v>3</v>
+      </c>
+      <c r="E71" s="9">
+        <v>3</v>
+      </c>
+      <c r="F71" s="10">
+        <v>141</v>
+      </c>
+      <c r="G71" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H71" s="11">
+        <v>41942</v>
+      </c>
+      <c r="I71" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J71" s="11">
+        <v>41942</v>
+      </c>
+      <c r="K71" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="L71" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M71" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N71" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="O71" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P71" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q71" s="9">
+        <v>0</v>
+      </c>
+      <c r="R71" s="10">
+        <v>0</v>
+      </c>
+      <c r="S71" s="9">
+        <v>3</v>
+      </c>
+      <c r="T71" s="10">
+        <v>0</v>
+      </c>
+      <c r="U71" s="10">
+        <v>0</v>
+      </c>
+      <c r="V71" s="10">
+        <v>141</v>
+      </c>
+      <c r="W71" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="X71" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y71" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z71" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA71" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB71" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC71" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF71" s="10">
+        <v>141</v>
+      </c>
+      <c r="AG71" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="72" spans="1:33" s="3" customFormat="1" outlineLevel="1">
+      <c r="A72" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B72" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D72" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E72" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F72" s="16">
+        <v>4436</v>
+      </c>
+      <c r="G72" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H72" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="I72" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="J72" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="K72" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="L72" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="M72" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="N72" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="O72" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="P72" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q72" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="R72" s="16">
+        <v>0</v>
+      </c>
+      <c r="S72" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="T72" s="16">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="U72" s="16">
+        <v>2.9</v>
+      </c>
+      <c r="V72" s="16">
+        <v>4362.2</v>
+      </c>
+      <c r="W72" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="X72" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y72" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z72" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA72" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB72" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC72" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD72" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE72" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF72" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG72" s="15" t="s">
         <v>42</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:AG70">
-    <sortCondition ref="K1"/>
+    <sortCondition ref="A18"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
